--- a/static/finalOutput/listOfQty.xlsx
+++ b/static/finalOutput/listOfQty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="219">
   <si>
     <t>PART NO.</t>
   </si>
@@ -25,7 +25,7 @@
     <t>Final_Qty</t>
   </si>
   <si>
-    <t>F9913VA</t>
+    <t>F9913TA</t>
   </si>
   <si>
     <t>F9910LE</t>
@@ -79,7 +79,10 @@
     <t>F9342MK</t>
   </si>
   <si>
-    <t>F9913RW</t>
+    <t>F9913QG</t>
+  </si>
+  <si>
+    <t>F9913QH</t>
   </si>
   <si>
     <t>F9910LS</t>
@@ -112,21 +115,24 @@
     <t>F9341JZ</t>
   </si>
   <si>
-    <t>F9913VS</t>
-  </si>
-  <si>
-    <t>F9900GK</t>
+    <t>F9913TS</t>
   </si>
   <si>
     <t>G9330DB</t>
   </si>
   <si>
-    <t>F9900GB</t>
-  </si>
-  <si>
     <t>F9940WF</t>
   </si>
   <si>
+    <t>F9900SF</t>
+  </si>
+  <si>
+    <t>F9275ZZ</t>
+  </si>
+  <si>
+    <t>F9340ND</t>
+  </si>
+  <si>
     <t>F9900RF</t>
   </si>
   <si>
@@ -145,10 +151,250 @@
     <t>F9341JQ</t>
   </si>
   <si>
-    <t>CPA530Y-NBS4N-0NNNN/T06</t>
-  </si>
-  <si>
-    <t>Case 1 - Terminal Cover with /X2</t>
+    <t>F9900SN</t>
+  </si>
+  <si>
+    <t>F9900SK</t>
+  </si>
+  <si>
+    <t>CPA530Y-NBS4N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>F9920BQ</t>
+  </si>
+  <si>
+    <t>F9920TP</t>
+  </si>
+  <si>
+    <t>G9330CB</t>
+  </si>
+  <si>
+    <t>CPA530Y-NBS7N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCS7N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>F9900TB</t>
+  </si>
+  <si>
+    <t>F9900EA</t>
+  </si>
+  <si>
+    <t>F9275ED</t>
+  </si>
+  <si>
+    <t>F9275EF</t>
+  </si>
+  <si>
+    <t>D0114RZ</t>
+  </si>
+  <si>
+    <t>F9900AA</t>
+  </si>
+  <si>
+    <t>F9900BA</t>
+  </si>
+  <si>
+    <t>F9300TE</t>
+  </si>
+  <si>
+    <t>D0117XL-A</t>
+  </si>
+  <si>
+    <t>F9273CZ</t>
+  </si>
+  <si>
+    <t>F9203ZA</t>
+  </si>
+  <si>
+    <t>F9275EG</t>
+  </si>
+  <si>
+    <t>Y9400ET</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMSNN-NNNNN/K3</t>
+  </si>
+  <si>
+    <t>F9900GD</t>
+  </si>
+  <si>
+    <t>CPA110Y-NFS5G-9NNNN/K2</t>
+  </si>
+  <si>
+    <t>CPA110Y-NVSNN-NNNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCS4N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>F9900AC</t>
+  </si>
+  <si>
+    <t>F9900BC</t>
+  </si>
+  <si>
+    <t>F9920VT</t>
+  </si>
+  <si>
+    <t>CPA110Y-NFS5J-9NNNN/K2</t>
+  </si>
+  <si>
+    <t>CPA110Y-NHSNN-NNNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMSNN-NNNNN/K3/A1</t>
+  </si>
+  <si>
+    <t>F9940WG</t>
+  </si>
+  <si>
+    <t>F9940WJ</t>
+  </si>
+  <si>
+    <t>CPA530Y-NDS7N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA530Y-NBS7N-0NNNN/K3/A1</t>
+  </si>
+  <si>
+    <t>CPA530Y-NDS7N-0NNNN/K3/A1</t>
+  </si>
+  <si>
+    <t>F9900SS</t>
+  </si>
+  <si>
+    <t>F9900SH</t>
+  </si>
+  <si>
+    <t>CPA110Y-NFS5J-BNNNN/K2</t>
+  </si>
+  <si>
+    <t>CPA530Y-NDS4N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA530Y-NAS4N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>F9900TE</t>
+  </si>
+  <si>
+    <t>CPA430Y-NASNN-NNNNN/K3</t>
+  </si>
+  <si>
+    <t>F9903CZ</t>
+  </si>
+  <si>
+    <t>F9900MK</t>
+  </si>
+  <si>
+    <t>C1016EZ</t>
+  </si>
+  <si>
+    <t>F9921AH</t>
+  </si>
+  <si>
+    <t>F9921TG</t>
+  </si>
+  <si>
+    <t>F9920LU</t>
+  </si>
+  <si>
+    <t>F9900SD</t>
+  </si>
+  <si>
+    <t>F9342YB</t>
+  </si>
+  <si>
+    <t>F9913MY</t>
+  </si>
+  <si>
+    <t>F9340WX</t>
+  </si>
+  <si>
+    <t>F9900AS</t>
+  </si>
+  <si>
+    <t>D0114RB</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMA4G-9NNNN/K3</t>
+  </si>
+  <si>
+    <t>F9340XX</t>
+  </si>
+  <si>
+    <t>F9340NJ</t>
+  </si>
+  <si>
+    <t>F9340SB</t>
+  </si>
+  <si>
+    <t>D0114PB</t>
+  </si>
+  <si>
+    <t>F9900AU</t>
+  </si>
+  <si>
+    <t>F9913TJ</t>
+  </si>
+  <si>
+    <t>F9900SB</t>
+  </si>
+  <si>
+    <t>CPA530Y-NAS7N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMT4J-9NNNN/K3</t>
+  </si>
+  <si>
+    <t>F9913QJ</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMT5J-9NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMD4G-9NNNN/K3</t>
+  </si>
+  <si>
+    <t>F9900TH</t>
+  </si>
+  <si>
+    <t>F9900SG</t>
+  </si>
+  <si>
+    <t>F9920VP</t>
+  </si>
+  <si>
+    <t>CPA110Y-NLD4G-9NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA430Y-NBSNN-NNNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA430Y-NAD4J-9NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMD4J-9NNNN/K3</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMT4J-9NNNN/K2</t>
+  </si>
+  <si>
+    <t>CPA430Y-NAT4J-9NNNN/K2</t>
+  </si>
+  <si>
+    <t>CPA430Y-NHSNN-NNNNN/K3</t>
+  </si>
+  <si>
+    <t>F9340EM</t>
+  </si>
+  <si>
+    <t>CPA530Y-NBH4N-0NNNN/K3</t>
+  </si>
+  <si>
+    <t>Case 1 - Terminal Cover</t>
   </si>
   <si>
     <t>O-Ring for Terminal Cover</t>
@@ -202,7 +448,10 @@
     <t>Nut for LCD Assy.</t>
   </si>
   <si>
-    <t>Case 1, EC-M20 with /X2</t>
+    <t>Case 1, EC-1/2 NPT,  w/o cert</t>
+  </si>
+  <si>
+    <t>Case 1, EC-1/2 NPT with Cert</t>
   </si>
   <si>
     <t>Terminal Block</t>
@@ -235,21 +484,25 @@
     <t>Ext. Gr. Screw &amp; clamp for  case 1 or 2 with Cert.</t>
   </si>
   <si>
-    <t>Meter Cover for Case"1" with /X2</t>
-  </si>
-  <si>
-    <t>Blind Plug - SS316 M20</t>
+    <t>Meter Cover for Case"1"</t>
   </si>
   <si>
     <t>Red cap for EC (EJA110 or 430 or 530) &amp; Process connection (EJA530 - 4)</t>
   </si>
   <si>
-    <t>Gasket for SS316 Blind Plug (M20)</t>
-  </si>
-  <si>
     <t>Pipe Assy.  for EJA530 - A or B or C</t>
   </si>
   <si>
+    <t>Mounting Bracket - SS316 for EJA530
+ or for bottom PC (EJA110 or 430)</t>
+  </si>
+  <si>
+    <t>Oil free label for /K1 or /K2 option</t>
+  </si>
+  <si>
+    <t>Oil prohibuted use label (to past on Trx. Poly cover incase of /K1 or /K2 or /K5 or /K6)</t>
+  </si>
+  <si>
     <t>Certification Tag Plate</t>
   </si>
   <si>
@@ -268,7 +521,157 @@
     <t xml:space="preserve">O-ring for Meter cover W/O /HE </t>
   </si>
   <si>
+    <t>U Bolt Assy - SS316 U bolt for EJA110 or 430 or 530 (Big)</t>
+  </si>
+  <si>
+    <t>SS316 U bolt for EJA530 (Small)</t>
+  </si>
+  <si>
     <t>CPA</t>
+  </si>
+  <si>
+    <t>Hart/BRAIN - Amp. w/o Cert</t>
+  </si>
+  <si>
+    <t>Brain/Hart - LPT Assy. w/o Cert</t>
+  </si>
+  <si>
+    <t>White cap for Process connection (EJA530 - 7 or 8)</t>
+  </si>
+  <si>
+    <t>Flange for Inst. 8 or 9.</t>
+  </si>
+  <si>
+    <t>Gasket for CPA assembly.</t>
+  </si>
+  <si>
+    <t>Vent plug for all /K series</t>
+  </si>
+  <si>
+    <t>Vent screw for all /K series</t>
+  </si>
+  <si>
+    <t>Drain Plug for Inst. 8,9,U.</t>
+  </si>
+  <si>
+    <t>Bolt for "G"</t>
+  </si>
+  <si>
+    <t>Nut for "G"</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS304 Flat type (Code B)</t>
+  </si>
+  <si>
+    <t>Mounting Bracket Bolt  for SS304 mounting bracket (Code B or D)</t>
+  </si>
+  <si>
+    <t>White Cap for flange cover incase of /K1 or /K2 or /K5 or /K6</t>
+  </si>
+  <si>
+    <t>Vent plug needle for all /K series</t>
+  </si>
+  <si>
+    <t>Ret ring for /K series</t>
+  </si>
+  <si>
+    <t>Rotation Stopper Plate for  EJA110E 'F' cap or Wetted part other than 'S' for EJA110E &amp; EJA430E</t>
+  </si>
+  <si>
+    <t>Bolt for "J"</t>
+  </si>
+  <si>
+    <t>Nut for "J"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain/Hart - LPT Assy. with Cert &amp; /A </t>
+  </si>
+  <si>
+    <t>Rotation Stopper Plate for EJA530 'D' cap</t>
+  </si>
+  <si>
+    <t>Hook  for EJA530 - D capsule</t>
+  </si>
+  <si>
+    <t>Special mounting bracket for Bottom process connection</t>
+  </si>
+  <si>
+    <t>Mounting Bracket Bolt - for SS316 mounting bracket(Code J or K)</t>
+  </si>
+  <si>
+    <t>Flange for Inst. 9 (L - side) .</t>
+  </si>
+  <si>
+    <t>Drain Plug (with heat no.)</t>
+  </si>
+  <si>
+    <t>LABEL</t>
+  </si>
+  <si>
+    <t>SOLID SUB-MATERIALS</t>
+  </si>
+  <si>
+    <t>Field bus - Amp. With Cert</t>
+  </si>
+  <si>
+    <t>Field/Profi Bus - LPT Assy. with Cert</t>
+  </si>
+  <si>
+    <t>LCD Assy. w/o SW</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS316 L type (Code K)</t>
+  </si>
+  <si>
+    <t>Feedthrough Capacitor for FF &amp; Profi bus</t>
+  </si>
+  <si>
+    <t>Blind Plug - SS304 1/2 NPT (E-Conn 7)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Connector -  Hastelloy 1/2 NPT </t>
+  </si>
+  <si>
+    <t>Process Connector Bolt - SS316L (Code-G)</t>
+  </si>
+  <si>
+    <t>Gasket for Process Connector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Connector - SS 1/2 NPT </t>
+  </si>
+  <si>
+    <t>Label for Process connector incase of /K1 or /K2 or /K5 or /K6</t>
+  </si>
+  <si>
+    <t>Vent plug for Inst. 8,9,B,U.</t>
+  </si>
+  <si>
+    <t>Vent screw for Inst. 8,9,B,U.</t>
+  </si>
+  <si>
+    <t>Process Connector Bolt - B7 Carbon Steel (Code-J)</t>
+  </si>
+  <si>
+    <t>Case 1 - Blind Cover</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS316 Flat type (Code J)</t>
+  </si>
+  <si>
+    <t>Case 1, EC-M20</t>
+  </si>
+  <si>
+    <t>Flange for Inst. "B".</t>
+  </si>
+  <si>
+    <t>Mounting Bracket Bolt - SS316 bolt for bottom Installation</t>
+  </si>
+  <si>
+    <t>Brain/Hart - LPT Assy. w/o Cert &amp; /A</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS304 L type (Code D)</t>
   </si>
 </sst>
 </file>
@@ -626,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D42"/>
+  <dimension ref="A1:D124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -651,10 +1054,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>44</v>
+        <v>126</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -665,10 +1068,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>45</v>
+        <v>127</v>
       </c>
       <c r="D3">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -679,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="D4">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -693,10 +1096,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>47</v>
+        <v>129</v>
       </c>
       <c r="D5">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -707,10 +1110,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>1421</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -721,10 +1124,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>49</v>
+        <v>131</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -735,10 +1138,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>132</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -749,10 +1152,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>133</v>
       </c>
       <c r="D9">
-        <v>6</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -763,10 +1166,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>52</v>
+        <v>134</v>
       </c>
       <c r="D10">
-        <v>2</v>
+        <v>908</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -777,10 +1180,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -791,10 +1194,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>54</v>
+        <v>136</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>770</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -805,10 +1208,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>137</v>
       </c>
       <c r="D13">
-        <v>1</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -819,10 +1222,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>138</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -833,10 +1236,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>57</v>
+        <v>139</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>392</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -847,10 +1250,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>58</v>
+        <v>140</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -861,10 +1264,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -875,10 +1278,10 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -889,10 +1292,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>61</v>
+        <v>143</v>
       </c>
       <c r="D19">
-        <v>2</v>
+        <v>894</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -903,318 +1306,1466 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>62</v>
+        <v>144</v>
       </c>
       <c r="D20">
-        <v>1</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>63</v>
+        <v>145</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="1">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B22" t="s">
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>146</v>
       </c>
       <c r="D22">
-        <v>2</v>
+        <v>454</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="1">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>147</v>
       </c>
       <c r="D23">
-        <v>3</v>
+        <v>908</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="1">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>148</v>
       </c>
       <c r="D24">
-        <v>3</v>
+        <v>1356</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="1">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>67</v>
+        <v>149</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>1362</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="1">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B26" t="s">
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>150</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B27" t="s">
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="1">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>70</v>
+        <v>152</v>
       </c>
       <c r="D28">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="1">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>153</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="1">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B30" t="s">
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>72</v>
+        <v>154</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>454</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>155</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>74</v>
+        <v>156</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>447</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D33">
-        <v>2</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>76</v>
+        <v>158</v>
       </c>
       <c r="D34">
-        <v>1</v>
+        <v>127</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>159</v>
       </c>
       <c r="D35">
-        <v>1</v>
+        <v>151</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>78</v>
+        <v>160</v>
       </c>
       <c r="D36">
-        <v>1</v>
+        <v>417</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>79</v>
+        <v>161</v>
       </c>
       <c r="D37">
-        <v>2</v>
+        <v>421</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>162</v>
       </c>
       <c r="D38">
-        <v>1</v>
+        <v>395</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>163</v>
       </c>
       <c r="D39">
-        <v>1</v>
+        <v>786</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>164</v>
       </c>
       <c r="D40">
-        <v>1</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>83</v>
+        <v>165</v>
       </c>
       <c r="D41">
-        <v>1</v>
+        <v>447</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
+        <v>166</v>
+      </c>
+      <c r="D42">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>47</v>
+      </c>
+      <c r="B43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C43" t="s">
+        <v>167</v>
+      </c>
+      <c r="D43">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>45</v>
+      </c>
+      <c r="C44" t="s">
+        <v>168</v>
+      </c>
+      <c r="D44">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>46</v>
+      </c>
+      <c r="C45" t="s">
+        <v>169</v>
+      </c>
+      <c r="D45">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>50</v>
+      </c>
+      <c r="B46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C46" t="s">
+        <v>170</v>
+      </c>
+      <c r="D46">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>64</v>
+      </c>
+      <c r="B47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" t="s">
+        <v>171</v>
+      </c>
+      <c r="D47">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>65</v>
+      </c>
+      <c r="B48" t="s">
+        <v>49</v>
+      </c>
+      <c r="C48" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>86</v>
+      </c>
+      <c r="B49" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>95</v>
+      </c>
+      <c r="B50" t="s">
+        <v>51</v>
+      </c>
+      <c r="C50" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>140</v>
+      </c>
+      <c r="B51" t="s">
+        <v>52</v>
+      </c>
+      <c r="C51" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1">
+        <v>159</v>
+      </c>
+      <c r="B52" t="s">
+        <v>53</v>
+      </c>
+      <c r="C52" t="s">
+        <v>174</v>
+      </c>
+      <c r="D52">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1">
+        <v>161</v>
+      </c>
+      <c r="B53" t="s">
+        <v>54</v>
+      </c>
+      <c r="C53" t="s">
+        <v>175</v>
+      </c>
+      <c r="D53">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1">
+        <v>162</v>
+      </c>
+      <c r="B54" t="s">
+        <v>55</v>
+      </c>
+      <c r="C54" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1">
+        <v>163</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55" t="s">
+        <v>177</v>
+      </c>
+      <c r="D55">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1">
+        <v>164</v>
+      </c>
+      <c r="B56" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" t="s">
+        <v>178</v>
+      </c>
+      <c r="D56">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1">
+        <v>165</v>
+      </c>
+      <c r="B57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C57" t="s">
+        <v>179</v>
+      </c>
+      <c r="D57">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1">
+        <v>166</v>
+      </c>
+      <c r="B58" t="s">
+        <v>59</v>
+      </c>
+      <c r="C58" t="s">
+        <v>180</v>
+      </c>
+      <c r="D58">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1">
+        <v>167</v>
+      </c>
+      <c r="B59" t="s">
+        <v>60</v>
+      </c>
+      <c r="C59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D59">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1">
+        <v>168</v>
+      </c>
+      <c r="B60" t="s">
+        <v>61</v>
+      </c>
+      <c r="C60" t="s">
+        <v>181</v>
+      </c>
+      <c r="D60">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1">
+        <v>169</v>
+      </c>
+      <c r="B61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="D61">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1">
+        <v>186</v>
+      </c>
+      <c r="B62" t="s">
+        <v>63</v>
+      </c>
+      <c r="C62" t="s">
+        <v>183</v>
+      </c>
+      <c r="D62">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1">
+        <v>192</v>
+      </c>
+      <c r="B63" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" t="s">
+        <v>184</v>
+      </c>
+      <c r="D63">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1">
+        <v>193</v>
+      </c>
+      <c r="B64" t="s">
+        <v>65</v>
+      </c>
+      <c r="C64" t="s">
+        <v>185</v>
+      </c>
+      <c r="D64">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1">
+        <v>194</v>
+      </c>
+      <c r="B65" t="s">
+        <v>66</v>
+      </c>
+      <c r="C65" t="s">
+        <v>170</v>
+      </c>
+      <c r="D65">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1">
+        <v>206</v>
+      </c>
+      <c r="B66" t="s">
+        <v>67</v>
+      </c>
+      <c r="C66" t="s">
+        <v>186</v>
+      </c>
+      <c r="D66">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1">
+        <v>239</v>
+      </c>
+      <c r="B67" t="s">
+        <v>68</v>
+      </c>
+      <c r="C67" t="s">
+        <v>170</v>
+      </c>
+      <c r="D67">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1">
+        <v>293</v>
+      </c>
+      <c r="B68" t="s">
+        <v>69</v>
+      </c>
+      <c r="C68" t="s">
+        <v>170</v>
+      </c>
+      <c r="D68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1">
+        <v>338</v>
+      </c>
+      <c r="B69" t="s">
+        <v>70</v>
+      </c>
+      <c r="C69" t="s">
+        <v>170</v>
+      </c>
+      <c r="D69">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1">
+        <v>408</v>
+      </c>
+      <c r="B70" t="s">
+        <v>71</v>
+      </c>
+      <c r="C70" t="s">
+        <v>187</v>
+      </c>
+      <c r="D70">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1">
+        <v>409</v>
+      </c>
+      <c r="B71" t="s">
+        <v>72</v>
+      </c>
+      <c r="C71" t="s">
+        <v>188</v>
+      </c>
+      <c r="D71">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1">
+        <v>452</v>
+      </c>
+      <c r="B72" t="s">
+        <v>73</v>
+      </c>
+      <c r="C72" t="s">
+        <v>189</v>
+      </c>
+      <c r="D72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1">
+        <v>488</v>
+      </c>
+      <c r="B73" t="s">
+        <v>74</v>
+      </c>
+      <c r="C73" t="s">
+        <v>170</v>
+      </c>
+      <c r="D73">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1">
+        <v>659</v>
+      </c>
+      <c r="B74" t="s">
+        <v>75</v>
+      </c>
+      <c r="C74" t="s">
+        <v>170</v>
+      </c>
+      <c r="D74">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1">
+        <v>719</v>
+      </c>
+      <c r="B75" t="s">
+        <v>76</v>
+      </c>
+      <c r="C75" t="s">
+        <v>170</v>
+      </c>
+      <c r="D75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1">
+        <v>782</v>
+      </c>
+      <c r="B76" t="s">
+        <v>77</v>
+      </c>
+      <c r="C76" t="s">
+        <v>190</v>
+      </c>
+      <c r="D76">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1">
+        <v>809</v>
+      </c>
+      <c r="B77" t="s">
+        <v>78</v>
+      </c>
+      <c r="C77" t="s">
+        <v>191</v>
+      </c>
+      <c r="D77">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1">
+        <v>821</v>
+      </c>
+      <c r="B78" t="s">
+        <v>79</v>
+      </c>
+      <c r="C78" t="s">
+        <v>170</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1">
+        <v>872</v>
+      </c>
+      <c r="B79" t="s">
+        <v>80</v>
+      </c>
+      <c r="C79" t="s">
+        <v>170</v>
+      </c>
+      <c r="D79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1">
+        <v>923</v>
+      </c>
+      <c r="B80" t="s">
+        <v>81</v>
+      </c>
+      <c r="C80" t="s">
+        <v>170</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1">
+        <v>1149</v>
+      </c>
+      <c r="B81" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" t="s">
+        <v>192</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1">
+        <v>1151</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>193</v>
+      </c>
+      <c r="D82">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1">
+        <v>1180</v>
+      </c>
+      <c r="B83" t="s">
         <v>84</v>
       </c>
-      <c r="D42">
+      <c r="C83" t="s">
+        <v>170</v>
+      </c>
+      <c r="D83">
         <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1">
+        <v>1291</v>
+      </c>
+      <c r="B84" t="s">
+        <v>85</v>
+      </c>
+      <c r="C84" t="s">
+        <v>170</v>
+      </c>
+      <c r="D84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1">
+        <v>1336</v>
+      </c>
+      <c r="B85" t="s">
+        <v>86</v>
+      </c>
+      <c r="C85" t="s">
+        <v>170</v>
+      </c>
+      <c r="D85">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1">
+        <v>1455</v>
+      </c>
+      <c r="B86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
+        <v>194</v>
+      </c>
+      <c r="D86">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1">
+        <v>1495</v>
+      </c>
+      <c r="B87" t="s">
+        <v>88</v>
+      </c>
+      <c r="C87" t="s">
+        <v>170</v>
+      </c>
+      <c r="D87">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1">
+        <v>1628</v>
+      </c>
+      <c r="B88" t="s">
+        <v>89</v>
+      </c>
+      <c r="C88" t="s">
+        <v>195</v>
+      </c>
+      <c r="D88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1">
+        <v>1651</v>
+      </c>
+      <c r="B89" t="s">
+        <v>90</v>
+      </c>
+      <c r="C89" t="s">
+        <v>196</v>
+      </c>
+      <c r="D89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1">
+        <v>1653</v>
+      </c>
+      <c r="B90" t="s">
+        <v>91</v>
+      </c>
+      <c r="C90" t="s">
+        <v>197</v>
+      </c>
+      <c r="D90">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1">
+        <v>1728</v>
+      </c>
+      <c r="B91" t="s">
+        <v>92</v>
+      </c>
+      <c r="C91" t="s">
+        <v>198</v>
+      </c>
+      <c r="D91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1">
+        <v>1729</v>
+      </c>
+      <c r="B92" t="s">
+        <v>93</v>
+      </c>
+      <c r="C92" t="s">
+        <v>199</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1">
+        <v>1731</v>
+      </c>
+      <c r="B93" t="s">
+        <v>94</v>
+      </c>
+      <c r="C93" t="s">
+        <v>200</v>
+      </c>
+      <c r="D93">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1">
+        <v>1741</v>
+      </c>
+      <c r="B94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C94" t="s">
+        <v>201</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1">
+        <v>1749</v>
+      </c>
+      <c r="B95" t="s">
+        <v>96</v>
+      </c>
+      <c r="C95" t="s">
+        <v>202</v>
+      </c>
+      <c r="D95">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1">
+        <v>1759</v>
+      </c>
+      <c r="B96" t="s">
+        <v>97</v>
+      </c>
+      <c r="C96" t="s">
+        <v>203</v>
+      </c>
+      <c r="D96">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1">
+        <v>1842</v>
+      </c>
+      <c r="B97" t="s">
+        <v>98</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+      <c r="D97">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1">
+        <v>1843</v>
+      </c>
+      <c r="B98" t="s">
+        <v>99</v>
+      </c>
+      <c r="C98" t="s">
+        <v>205</v>
+      </c>
+      <c r="D98">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1">
+        <v>1844</v>
+      </c>
+      <c r="B99" t="s">
+        <v>100</v>
+      </c>
+      <c r="C99" t="s">
+        <v>206</v>
+      </c>
+      <c r="D99">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1">
+        <v>1873</v>
+      </c>
+      <c r="B100" t="s">
+        <v>101</v>
+      </c>
+      <c r="C100" t="s">
+        <v>170</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1">
+        <v>1898</v>
+      </c>
+      <c r="B101" t="s">
+        <v>102</v>
+      </c>
+      <c r="C101" t="s">
+        <v>207</v>
+      </c>
+      <c r="D101">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1">
+        <v>1925</v>
+      </c>
+      <c r="B102" t="s">
+        <v>103</v>
+      </c>
+      <c r="C102" t="s">
+        <v>208</v>
+      </c>
+      <c r="D102">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="1">
+        <v>2019</v>
+      </c>
+      <c r="B103" t="s">
+        <v>104</v>
+      </c>
+      <c r="C103" t="s">
+        <v>209</v>
+      </c>
+      <c r="D103">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B104" t="s">
+        <v>105</v>
+      </c>
+      <c r="C104" t="s">
+        <v>210</v>
+      </c>
+      <c r="D104">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="1">
+        <v>2023</v>
+      </c>
+      <c r="B105" t="s">
+        <v>106</v>
+      </c>
+      <c r="C105" t="s">
+        <v>211</v>
+      </c>
+      <c r="D105">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="1">
+        <v>2150</v>
+      </c>
+      <c r="B106" t="s">
+        <v>107</v>
+      </c>
+      <c r="C106" t="s">
+        <v>212</v>
+      </c>
+      <c r="D106">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="1">
+        <v>2402</v>
+      </c>
+      <c r="B107" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" t="s">
+        <v>213</v>
+      </c>
+      <c r="D107">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="1">
+        <v>2487</v>
+      </c>
+      <c r="B108" t="s">
+        <v>109</v>
+      </c>
+      <c r="C108" t="s">
+        <v>170</v>
+      </c>
+      <c r="D108">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="1">
+        <v>2634</v>
+      </c>
+      <c r="B109" t="s">
+        <v>110</v>
+      </c>
+      <c r="C109" t="s">
+        <v>170</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="1">
+        <v>2762</v>
+      </c>
+      <c r="B110" t="s">
+        <v>111</v>
+      </c>
+      <c r="C110" t="s">
+        <v>214</v>
+      </c>
+      <c r="D110">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="1">
+        <v>2839</v>
+      </c>
+      <c r="B111" t="s">
+        <v>112</v>
+      </c>
+      <c r="C111" t="s">
+        <v>170</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="1">
+        <v>2986</v>
+      </c>
+      <c r="B112" t="s">
+        <v>113</v>
+      </c>
+      <c r="C112" t="s">
+        <v>170</v>
+      </c>
+      <c r="D112">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
+        <v>3061</v>
+      </c>
+      <c r="B113" t="s">
+        <v>114</v>
+      </c>
+      <c r="C113" t="s">
+        <v>215</v>
+      </c>
+      <c r="D113">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
+        <v>3070</v>
+      </c>
+      <c r="B114" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" t="s">
+        <v>216</v>
+      </c>
+      <c r="D114">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
+        <v>3838</v>
+      </c>
+      <c r="B115" t="s">
+        <v>116</v>
+      </c>
+      <c r="C115" t="s">
+        <v>217</v>
+      </c>
+      <c r="D115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
+        <v>4143</v>
+      </c>
+      <c r="B116" t="s">
+        <v>117</v>
+      </c>
+      <c r="C116" t="s">
+        <v>170</v>
+      </c>
+      <c r="D116">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
+        <v>4359</v>
+      </c>
+      <c r="B117" t="s">
+        <v>118</v>
+      </c>
+      <c r="C117" t="s">
+        <v>170</v>
+      </c>
+      <c r="D117">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
+        <v>4403</v>
+      </c>
+      <c r="B118" t="s">
+        <v>119</v>
+      </c>
+      <c r="C118" t="s">
+        <v>170</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
+        <v>4765</v>
+      </c>
+      <c r="B119" t="s">
+        <v>120</v>
+      </c>
+      <c r="C119" t="s">
+        <v>170</v>
+      </c>
+      <c r="D119">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
+        <v>5157</v>
+      </c>
+      <c r="B120" t="s">
+        <v>121</v>
+      </c>
+      <c r="C120" t="s">
+        <v>170</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
+        <v>5211</v>
+      </c>
+      <c r="B121" t="s">
+        <v>122</v>
+      </c>
+      <c r="C121" t="s">
+        <v>170</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
+        <v>5372</v>
+      </c>
+      <c r="B122" t="s">
+        <v>123</v>
+      </c>
+      <c r="C122" t="s">
+        <v>170</v>
+      </c>
+      <c r="D122">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
+        <v>5642</v>
+      </c>
+      <c r="B123" t="s">
+        <v>124</v>
+      </c>
+      <c r="C123" t="s">
+        <v>218</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
+        <v>5718</v>
+      </c>
+      <c r="B124" t="s">
+        <v>125</v>
+      </c>
+      <c r="C124" t="s">
+        <v>170</v>
+      </c>
+      <c r="D124">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/static/finalOutput/listOfQty.xlsx
+++ b/static/finalOutput/listOfQty.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="241" uniqueCount="225">
   <si>
     <t>PART NO.</t>
   </si>
@@ -79,6 +79,36 @@
     <t>F9342MK</t>
   </si>
   <si>
+    <t>F9350EW</t>
+  </si>
+  <si>
+    <t>F9900EA</t>
+  </si>
+  <si>
+    <t>F9350ER</t>
+  </si>
+  <si>
+    <t>F9350KZ</t>
+  </si>
+  <si>
+    <t>F9350RS</t>
+  </si>
+  <si>
+    <t>F9900AA</t>
+  </si>
+  <si>
+    <t>F9900BA</t>
+  </si>
+  <si>
+    <t>F9900SB</t>
+  </si>
+  <si>
+    <t>F9900SN</t>
+  </si>
+  <si>
+    <t>F9900SH</t>
+  </si>
+  <si>
     <t>F9913QG</t>
   </si>
   <si>
@@ -115,96 +145,204 @@
     <t>F9341JZ</t>
   </si>
   <si>
+    <t>G9330DB</t>
+  </si>
+  <si>
+    <t>F9900RF</t>
+  </si>
+  <si>
+    <t>F9900RP</t>
+  </si>
+  <si>
     <t>F9913TS</t>
   </si>
   <si>
-    <t>G9330DB</t>
+    <t>F9341JD</t>
+  </si>
+  <si>
+    <t>F9341JE</t>
+  </si>
+  <si>
+    <t>F9341JQ</t>
+  </si>
+  <si>
+    <t>F9341JA</t>
+  </si>
+  <si>
+    <t>CPA110Y-NMSNN-NNNNN</t>
+  </si>
+  <si>
+    <t>F9920BQ</t>
+  </si>
+  <si>
+    <t>F9920TP</t>
   </si>
   <si>
     <t>F9940WF</t>
   </si>
   <si>
+    <t>CPA530Y-NBS4N-0NNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCS4N-0NNNN</t>
+  </si>
+  <si>
+    <t>F9900TM</t>
+  </si>
+  <si>
+    <t>F9900AC</t>
+  </si>
+  <si>
+    <t>F9900BC</t>
+  </si>
+  <si>
+    <t>F9300TE</t>
+  </si>
+  <si>
+    <t>D0117XL-A</t>
+  </si>
+  <si>
+    <t>F9273CZ</t>
+  </si>
+  <si>
+    <t>F9900TB</t>
+  </si>
+  <si>
+    <t>F9340SB</t>
+  </si>
+  <si>
+    <t>D0114PB</t>
+  </si>
+  <si>
+    <t>D0114RZ</t>
+  </si>
+  <si>
+    <t>F9340XX</t>
+  </si>
+  <si>
+    <t>F9900AU</t>
+  </si>
+  <si>
+    <t>D0114RB</t>
+  </si>
+  <si>
+    <t>CPA110Y-NHSNN-NNNNN</t>
+  </si>
+  <si>
     <t>F9900SF</t>
   </si>
   <si>
+    <t>F9900SK</t>
+  </si>
+  <si>
+    <t>F9913VA</t>
+  </si>
+  <si>
+    <t>F9913RU</t>
+  </si>
+  <si>
+    <t>F9913RV</t>
+  </si>
+  <si>
+    <t>F9913VS</t>
+  </si>
+  <si>
+    <t>F9940WG</t>
+  </si>
+  <si>
+    <t>F9940WJ</t>
+  </si>
+  <si>
+    <t>CPA530Y-NDS4N-0NNNN</t>
+  </si>
+  <si>
+    <t>F9903BD</t>
+  </si>
+  <si>
+    <t>F9903CM</t>
+  </si>
+  <si>
+    <t>F9903CZ</t>
+  </si>
+  <si>
+    <t>CPA110Y-NVSNN-NNNNN</t>
+  </si>
+  <si>
+    <t>F9900SD</t>
+  </si>
+  <si>
+    <t>CPA530Y-NDH4N-0NNNN</t>
+  </si>
+  <si>
+    <t>F9921AH</t>
+  </si>
+  <si>
+    <t>F9921TF</t>
+  </si>
+  <si>
+    <t>F9920LU</t>
+  </si>
+  <si>
+    <t>F9342YB</t>
+  </si>
+  <si>
+    <t>F9900GD</t>
+  </si>
+  <si>
+    <t>CPA110Y-NFS5G-9NNNN/MG1</t>
+  </si>
+  <si>
+    <t>G9330CB</t>
+  </si>
+  <si>
+    <t>CPA530Y-NBS7N-0NNNN</t>
+  </si>
+  <si>
+    <t>F9913CA</t>
+  </si>
+  <si>
+    <t>F9900TE</t>
+  </si>
+  <si>
+    <t>F9913AL</t>
+  </si>
+  <si>
+    <t>F9913MD</t>
+  </si>
+  <si>
+    <t>F9913MA</t>
+  </si>
+  <si>
+    <t>F9913MB</t>
+  </si>
+  <si>
+    <t>F9913CS</t>
+  </si>
+  <si>
+    <t>CPA430Y-NASNN-NNNNN</t>
+  </si>
+  <si>
+    <t>F9900AS</t>
+  </si>
+  <si>
+    <t>CPA530Y-NCS4N-0NNNN/A1</t>
+  </si>
+  <si>
+    <t>CPA530Y-NAS4N-0NNNN</t>
+  </si>
+  <si>
+    <t>F9275ED</t>
+  </si>
+  <si>
+    <t>F9275EF</t>
+  </si>
+  <si>
     <t>F9275ZZ</t>
   </si>
   <si>
     <t>F9340ND</t>
   </si>
   <si>
-    <t>F9900RF</t>
-  </si>
-  <si>
-    <t>F9900RP</t>
-  </si>
-  <si>
-    <t>F9341JA</t>
-  </si>
-  <si>
-    <t>F9341JD</t>
-  </si>
-  <si>
-    <t>F9341JE</t>
-  </si>
-  <si>
-    <t>F9341JQ</t>
-  </si>
-  <si>
-    <t>F9900SN</t>
-  </si>
-  <si>
-    <t>F9900SK</t>
-  </si>
-  <si>
-    <t>CPA530Y-NBS4N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>F9920BQ</t>
-  </si>
-  <si>
-    <t>F9920TP</t>
-  </si>
-  <si>
-    <t>G9330CB</t>
-  </si>
-  <si>
-    <t>CPA530Y-NBS7N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA530Y-NCS7N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>F9900TB</t>
-  </si>
-  <si>
-    <t>F9900EA</t>
-  </si>
-  <si>
-    <t>F9275ED</t>
-  </si>
-  <si>
-    <t>F9275EF</t>
-  </si>
-  <si>
-    <t>D0114RZ</t>
-  </si>
-  <si>
-    <t>F9900AA</t>
-  </si>
-  <si>
-    <t>F9900BA</t>
-  </si>
-  <si>
-    <t>F9300TE</t>
-  </si>
-  <si>
-    <t>D0117XL-A</t>
-  </si>
-  <si>
-    <t>F9273CZ</t>
-  </si>
-  <si>
     <t>F9203ZA</t>
   </si>
   <si>
@@ -214,184 +352,34 @@
     <t>Y9400ET</t>
   </si>
   <si>
-    <t>CPA110Y-NMSNN-NNNNN/K3</t>
-  </si>
-  <si>
-    <t>F9900GD</t>
-  </si>
-  <si>
-    <t>CPA110Y-NFS5G-9NNNN/K2</t>
-  </si>
-  <si>
-    <t>CPA110Y-NVSNN-NNNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA530Y-NCS4N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>F9900AC</t>
-  </si>
-  <si>
-    <t>F9900BC</t>
-  </si>
-  <si>
-    <t>F9920VT</t>
-  </si>
-  <si>
-    <t>CPA110Y-NFS5J-9NNNN/K2</t>
-  </si>
-  <si>
     <t>CPA110Y-NHSNN-NNNNN/K3</t>
   </si>
   <si>
-    <t>CPA110Y-NMSNN-NNNNN/K3/A1</t>
-  </si>
-  <si>
-    <t>F9940WG</t>
-  </si>
-  <si>
-    <t>F9940WJ</t>
-  </si>
-  <si>
-    <t>CPA530Y-NDS7N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA530Y-NBS7N-0NNNN/K3/A1</t>
-  </si>
-  <si>
-    <t>CPA530Y-NDS7N-0NNNN/K3/A1</t>
-  </si>
-  <si>
-    <t>F9900SS</t>
-  </si>
-  <si>
-    <t>F9900SH</t>
-  </si>
-  <si>
-    <t>CPA110Y-NFS5J-BNNNN/K2</t>
-  </si>
-  <si>
-    <t>CPA530Y-NDS4N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA530Y-NAS4N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>F9900TE</t>
-  </si>
-  <si>
-    <t>CPA430Y-NASNN-NNNNN/K3</t>
-  </si>
-  <si>
-    <t>F9903CZ</t>
-  </si>
-  <si>
-    <t>F9900MK</t>
-  </si>
-  <si>
-    <t>C1016EZ</t>
-  </si>
-  <si>
-    <t>F9921AH</t>
+    <t>CPA110Y-NFS5J-9NNNN</t>
+  </si>
+  <si>
+    <t>F9913RW</t>
+  </si>
+  <si>
+    <t>F9900GK</t>
+  </si>
+  <si>
+    <t>F9900GB</t>
+  </si>
+  <si>
+    <t>F9913MZ</t>
+  </si>
+  <si>
+    <t>F9920TS</t>
   </si>
   <si>
     <t>F9921TG</t>
   </si>
   <si>
-    <t>F9920LU</t>
-  </si>
-  <si>
-    <t>F9900SD</t>
-  </si>
-  <si>
-    <t>F9342YB</t>
-  </si>
-  <si>
-    <t>F9913MY</t>
-  </si>
-  <si>
-    <t>F9340WX</t>
-  </si>
-  <si>
-    <t>F9900AS</t>
-  </si>
-  <si>
-    <t>D0114RB</t>
-  </si>
-  <si>
-    <t>CPA110Y-NMA4G-9NNNN/K3</t>
-  </si>
-  <si>
-    <t>F9340XX</t>
-  </si>
-  <si>
-    <t>F9340NJ</t>
-  </si>
-  <si>
-    <t>F9340SB</t>
-  </si>
-  <si>
-    <t>D0114PB</t>
-  </si>
-  <si>
-    <t>F9900AU</t>
-  </si>
-  <si>
-    <t>F9913TJ</t>
-  </si>
-  <si>
-    <t>F9900SB</t>
-  </si>
-  <si>
-    <t>CPA530Y-NAS7N-0NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA110Y-NMT4J-9NNNN/K3</t>
-  </si>
-  <si>
-    <t>F9913QJ</t>
-  </si>
-  <si>
-    <t>CPA110Y-NMT5J-9NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA110Y-NMD4G-9NNNN/K3</t>
-  </si>
-  <si>
-    <t>F9900TH</t>
-  </si>
-  <si>
-    <t>F9900SG</t>
-  </si>
-  <si>
-    <t>F9920VP</t>
-  </si>
-  <si>
-    <t>CPA110Y-NLD4G-9NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA430Y-NBSNN-NNNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA430Y-NAD4J-9NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA110Y-NMD4J-9NNNN/K3</t>
-  </si>
-  <si>
-    <t>CPA110Y-NMT4J-9NNNN/K2</t>
-  </si>
-  <si>
-    <t>CPA430Y-NAT4J-9NNNN/K2</t>
-  </si>
-  <si>
-    <t>CPA430Y-NHSNN-NNNNN/K3</t>
-  </si>
-  <si>
-    <t>F9340EM</t>
-  </si>
-  <si>
-    <t>CPA530Y-NBH4N-0NNNN/K3</t>
+    <t>CPA530Y-NCS7N-0NNNN</t>
+  </si>
+  <si>
+    <t>CPA530Y-NAS7N-0NNNN</t>
   </si>
   <si>
     <t>Case 1 - Terminal Cover</t>
@@ -436,7 +424,7 @@
     <t>Hart/BRAIN - Amp. With Cert</t>
   </si>
   <si>
-    <t>TERMINAL ASSY</t>
+    <t>Brain/Hart - LPT Assy. with Cert</t>
   </si>
   <si>
     <t>2-Core Cable</t>
@@ -448,6 +436,36 @@
     <t>Nut for LCD Assy.</t>
   </si>
   <si>
+    <t>Flange - wetted part 'L'</t>
+  </si>
+  <si>
+    <t>Gasket for CPA assembly.</t>
+  </si>
+  <si>
+    <t>Vent Plug for Mtl code 'L'</t>
+  </si>
+  <si>
+    <t>Vent Screw for Mtl Code 'L'</t>
+  </si>
+  <si>
+    <t>Drain Plug Mtl code 'L'</t>
+  </si>
+  <si>
+    <t>Bolt for "G"</t>
+  </si>
+  <si>
+    <t>Nut for "G"</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS316 Flat type (Code J)</t>
+  </si>
+  <si>
+    <t>U Bolt Assy - SS316 U bolt for EJA110 or 430 or 530 (Big)</t>
+  </si>
+  <si>
+    <t>Mounting Bracket Bolt - for SS316 mounting bracket(Code J or K)</t>
+  </si>
+  <si>
     <t>Case 1, EC-1/2 NPT,  w/o cert</t>
   </si>
   <si>
@@ -484,88 +502,169 @@
     <t>Ext. Gr. Screw &amp; clamp for  case 1 or 2 with Cert.</t>
   </si>
   <si>
+    <t>Red cap for EC (EJA110 or 430 or 530) &amp; Process connection (EJA530 - 4)</t>
+  </si>
+  <si>
+    <t>Certification Tag Plate</t>
+  </si>
+  <si>
+    <t>Cover lock screw (bolt) incase of Flame proof cert.- case 1 or 2</t>
+  </si>
+  <si>
     <t>Meter Cover for Case"1"</t>
   </si>
   <si>
-    <t>Red cap for EC (EJA110 or 430 or 530) &amp; Process connection (EJA530 - 4)</t>
+    <t>Spring for Meter cover</t>
+  </si>
+  <si>
+    <t>Ring for Meter cover</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O-ring for Meter cover W/O /HE </t>
+  </si>
+  <si>
+    <t>Meter cover Glass</t>
+  </si>
+  <si>
+    <t>CPA</t>
+  </si>
+  <si>
+    <t>Hart/BRAIN - Amp. w/o Cert</t>
+  </si>
+  <si>
+    <t>Brain/Hart - LPT Assy. w/o Cert</t>
   </si>
   <si>
     <t>Pipe Assy.  for EJA530 - A or B or C</t>
   </si>
   <si>
-    <t>Mounting Bracket - SS316 for EJA530
+    <t>Flange for P.C " W".</t>
+  </si>
+  <si>
+    <t>Bolt for "J"</t>
+  </si>
+  <si>
+    <t>Nut for "J"</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS304 Flat type (Code B)</t>
+  </si>
+  <si>
+    <t>Mounting Bracket Bolt  for SS304 mounting bracket (Code B or D)</t>
+  </si>
+  <si>
+    <t>Flange for Inst. 8 or 9.</t>
+  </si>
+  <si>
+    <t>Vent plug for Inst. 8,9,B,U.</t>
+  </si>
+  <si>
+    <t>Vent screw for Inst. 8,9,B,U.</t>
+  </si>
+  <si>
+    <t>Drain Plug for Inst. 8,9,U.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Process Connector - SS 1/2 NPT </t>
+  </si>
+  <si>
+    <t>Process Connector Bolt - B7 Carbon Steel (Code-J)</t>
+  </si>
+  <si>
+    <t>Gasket for Process Connector</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS316 for EJA530_x000D_
  or for bottom PC (EJA110 or 430)</t>
   </si>
   <si>
+    <t>SS316 U bolt for EJA530 (Small)</t>
+  </si>
+  <si>
+    <t>Case 1 - Terminal Cover with /X2</t>
+  </si>
+  <si>
+    <t>Case 1, EC-1/2 NPT,  w/o cert &amp; /X2</t>
+  </si>
+  <si>
+    <t>Case 1, EC-1/2 NPT with Cert &amp; /X2</t>
+  </si>
+  <si>
+    <t>Meter Cover for Case"1" with /X2</t>
+  </si>
+  <si>
+    <t>Rotation Stopper Plate for EJA530 'D' cap</t>
+  </si>
+  <si>
+    <t>Hook  for EJA530 - D capsule</t>
+  </si>
+  <si>
+    <t>Vent Plug (with heat no.)</t>
+  </si>
+  <si>
+    <t>Vent Screw (with heat no.)</t>
+  </si>
+  <si>
+    <t>Drain Plug (with heat no.)</t>
+  </si>
+  <si>
+    <t>Mounting Bracket - SS316 L type (Code K)</t>
+  </si>
+  <si>
+    <t>Field bus - Amp. With Cert</t>
+  </si>
+  <si>
+    <t>Field/Profi Bus - LPT Assy. w/o Cert</t>
+  </si>
+  <si>
+    <t>LCD Assy. w/o SW</t>
+  </si>
+  <si>
+    <t>Feedthrough Capacitor for FF &amp; Profi bus</t>
+  </si>
+  <si>
+    <t>Rotation Stopper Plate for  EJA110E 'F' cap or Wetted part other than 'S' for EJA110E &amp; EJA430E</t>
+  </si>
+  <si>
+    <t>White cap for Process connection (EJA530 - 7 or 8)</t>
+  </si>
+  <si>
+    <t>Case 3 - Terminal Cover</t>
+  </si>
+  <si>
+    <t>Flange for Inst. 9 (L - side) .</t>
+  </si>
+  <si>
+    <t>Case 3, EC-1/2 NPT (E-Conn 2 or C)</t>
+  </si>
+  <si>
+    <t>Ext. Gr. Screw &amp; clamp for  Case 3 with Cert.</t>
+  </si>
+  <si>
+    <t>Screw for fixing zero screw cover for Case 3</t>
+  </si>
+  <si>
+    <t>Cover lock screw (bolt) incase of Flame proof cert. - case 3</t>
+  </si>
+  <si>
+    <t>Meter Cover for Case"3"</t>
+  </si>
+  <si>
+    <t>Process Connector Bolt - SS316L (Code-G)</t>
+  </si>
+  <si>
+    <t>Vent plug for all /K series</t>
+  </si>
+  <si>
+    <t>Vent screw for all /K series</t>
+  </si>
+  <si>
     <t>Oil free label for /K1 or /K2 option</t>
   </si>
   <si>
     <t>Oil prohibuted use label (to past on Trx. Poly cover incase of /K1 or /K2 or /K5 or /K6)</t>
   </si>
   <si>
-    <t>Certification Tag Plate</t>
-  </si>
-  <si>
-    <t>Cover lock screw (bolt) incase of Flame proof cert.- case 1 or 2</t>
-  </si>
-  <si>
-    <t>Meter cover Glass</t>
-  </si>
-  <si>
-    <t>Spring for Meter cover</t>
-  </si>
-  <si>
-    <t>Ring for Meter cover</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O-ring for Meter cover W/O /HE </t>
-  </si>
-  <si>
-    <t>U Bolt Assy - SS316 U bolt for EJA110 or 430 or 530 (Big)</t>
-  </si>
-  <si>
-    <t>SS316 U bolt for EJA530 (Small)</t>
-  </si>
-  <si>
-    <t>CPA</t>
-  </si>
-  <si>
-    <t>Hart/BRAIN - Amp. w/o Cert</t>
-  </si>
-  <si>
-    <t>Brain/Hart - LPT Assy. w/o Cert</t>
-  </si>
-  <si>
-    <t>White cap for Process connection (EJA530 - 7 or 8)</t>
-  </si>
-  <si>
-    <t>Flange for Inst. 8 or 9.</t>
-  </si>
-  <si>
-    <t>Gasket for CPA assembly.</t>
-  </si>
-  <si>
-    <t>Vent plug for all /K series</t>
-  </si>
-  <si>
-    <t>Vent screw for all /K series</t>
-  </si>
-  <si>
-    <t>Drain Plug for Inst. 8,9,U.</t>
-  </si>
-  <si>
-    <t>Bolt for "G"</t>
-  </si>
-  <si>
-    <t>Nut for "G"</t>
-  </si>
-  <si>
-    <t>Mounting Bracket - SS304 Flat type (Code B)</t>
-  </si>
-  <si>
-    <t>Mounting Bracket Bolt  for SS304 mounting bracket (Code B or D)</t>
-  </si>
-  <si>
     <t>White Cap for flange cover incase of /K1 or /K2 or /K5 or /K6</t>
   </si>
   <si>
@@ -575,103 +674,22 @@
     <t>Ret ring for /K series</t>
   </si>
   <si>
-    <t>Rotation Stopper Plate for  EJA110E 'F' cap or Wetted part other than 'S' for EJA110E &amp; EJA430E</t>
-  </si>
-  <si>
-    <t>Bolt for "J"</t>
-  </si>
-  <si>
-    <t>Nut for "J"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brain/Hart - LPT Assy. with Cert &amp; /A </t>
-  </si>
-  <si>
-    <t>Rotation Stopper Plate for EJA530 'D' cap</t>
-  </si>
-  <si>
-    <t>Hook  for EJA530 - D capsule</t>
-  </si>
-  <si>
-    <t>Special mounting bracket for Bottom process connection</t>
-  </si>
-  <si>
-    <t>Mounting Bracket Bolt - for SS316 mounting bracket(Code J or K)</t>
-  </si>
-  <si>
-    <t>Flange for Inst. 9 (L - side) .</t>
-  </si>
-  <si>
-    <t>Drain Plug (with heat no.)</t>
-  </si>
-  <si>
-    <t>LABEL</t>
-  </si>
-  <si>
-    <t>SOLID SUB-MATERIALS</t>
-  </si>
-  <si>
-    <t>Field bus - Amp. With Cert</t>
+    <t>Case 1, EC-M20 with /X2</t>
+  </si>
+  <si>
+    <t>Blind Plug - SS316 M20</t>
+  </si>
+  <si>
+    <t>Gasket for SS316 Blind Plug (M20)</t>
+  </si>
+  <si>
+    <t>Blind Plug - SS304 M20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brain/Hart - LPT Assy. with Cert </t>
   </si>
   <si>
     <t>Field/Profi Bus - LPT Assy. with Cert</t>
-  </si>
-  <si>
-    <t>LCD Assy. w/o SW</t>
-  </si>
-  <si>
-    <t>Mounting Bracket - SS316 L type (Code K)</t>
-  </si>
-  <si>
-    <t>Feedthrough Capacitor for FF &amp; Profi bus</t>
-  </si>
-  <si>
-    <t>Blind Plug - SS304 1/2 NPT (E-Conn 7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process Connector -  Hastelloy 1/2 NPT </t>
-  </si>
-  <si>
-    <t>Process Connector Bolt - SS316L (Code-G)</t>
-  </si>
-  <si>
-    <t>Gasket for Process Connector</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Process Connector - SS 1/2 NPT </t>
-  </si>
-  <si>
-    <t>Label for Process connector incase of /K1 or /K2 or /K5 or /K6</t>
-  </si>
-  <si>
-    <t>Vent plug for Inst. 8,9,B,U.</t>
-  </si>
-  <si>
-    <t>Vent screw for Inst. 8,9,B,U.</t>
-  </si>
-  <si>
-    <t>Process Connector Bolt - B7 Carbon Steel (Code-J)</t>
-  </si>
-  <si>
-    <t>Case 1 - Blind Cover</t>
-  </si>
-  <si>
-    <t>Mounting Bracket - SS316 Flat type (Code J)</t>
-  </si>
-  <si>
-    <t>Case 1, EC-M20</t>
-  </si>
-  <si>
-    <t>Flange for Inst. "B".</t>
-  </si>
-  <si>
-    <t>Mounting Bracket Bolt - SS316 bolt for bottom Installation</t>
-  </si>
-  <si>
-    <t>Brain/Hart - LPT Assy. w/o Cert &amp; /A</t>
-  </si>
-  <si>
-    <t>Mounting Bracket - SS304 L type (Code D)</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1054,10 +1072,10 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D2">
-        <v>454</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1068,10 +1086,10 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="D3">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1082,10 +1100,10 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D4">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1096,10 +1114,10 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D5">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1110,10 +1128,10 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D6">
-        <v>1421</v>
+        <v>1455</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1124,10 +1142,10 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D7">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1138,10 +1156,10 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D8">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1152,10 +1170,10 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D9">
-        <v>2606</v>
+        <v>2478</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1166,10 +1184,10 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D10">
-        <v>908</v>
+        <v>898</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1180,10 +1198,10 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D11">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1194,10 +1212,10 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="D12">
-        <v>770</v>
+        <v>591</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1208,10 +1226,10 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="D13">
-        <v>370</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1222,10 +1240,10 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D14">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1236,10 +1254,10 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D15">
-        <v>392</v>
+        <v>331</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1250,10 +1268,10 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D16">
-        <v>378</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -1264,10 +1282,10 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D17">
-        <v>454</v>
+        <v>449</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -1278,7 +1296,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D18">
         <v>434</v>
@@ -1292,10 +1310,10 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="D19">
-        <v>894</v>
+        <v>898</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1306,10 +1324,10 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="D20">
-        <v>57</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1320,10 +1338,10 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D21">
-        <v>386</v>
+        <v>260</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -1334,10 +1352,10 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D22">
-        <v>454</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1348,10 +1366,10 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D23">
-        <v>908</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -1362,10 +1380,10 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D24">
-        <v>1356</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -1376,10 +1394,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D25">
-        <v>1362</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -1390,10 +1408,10 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="D26">
-        <v>395</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27" spans="1:4">
@@ -1404,10 +1422,10 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="D27">
-        <v>454</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -1418,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D28">
-        <v>454</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1432,10 +1450,10 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D29">
-        <v>454</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -1446,192 +1464,192 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D30">
-        <v>454</v>
+        <v>103</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D31">
-        <v>395</v>
+        <v>47</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D32">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D33">
-        <v>1016</v>
+        <v>898</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="1">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="D34">
-        <v>127</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="1">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="D35">
-        <v>151</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="1">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D36">
-        <v>417</v>
+        <v>334</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="1">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="D37">
-        <v>421</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="1">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="D38">
-        <v>395</v>
+        <v>449</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="1">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D39">
-        <v>786</v>
+        <v>449</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="1">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D40">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="1">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="D41">
-        <v>447</v>
+        <v>327</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="1">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="D42">
-        <v>447</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B43" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D43">
-        <v>447</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:4">
@@ -1642,10 +1660,10 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D44">
-        <v>158</v>
+        <v>634</v>
       </c>
     </row>
     <row r="45" spans="1:4">
@@ -1656,10 +1674,10 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D45">
-        <v>137</v>
+        <v>150</v>
       </c>
     </row>
     <row r="46" spans="1:4">
@@ -1670,57 +1688,57 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D46">
-        <v>59</v>
+        <v>449</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="1">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="B47" t="s">
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="D47">
-        <v>60</v>
+        <v>449</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="1">
-        <v>65</v>
+        <v>52</v>
       </c>
       <c r="B48" t="s">
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D48">
-        <v>56</v>
+        <v>449</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="1">
-        <v>86</v>
+        <v>53</v>
       </c>
       <c r="B49" t="s">
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="D49">
-        <v>24</v>
+        <v>449</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="1">
-        <v>95</v>
+        <v>54</v>
       </c>
       <c r="B50" t="s">
         <v>51</v>
@@ -1729,264 +1747,264 @@
         <v>170</v>
       </c>
       <c r="D50">
-        <v>6</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="1">
-        <v>140</v>
+        <v>68</v>
       </c>
       <c r="B51" t="s">
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D51">
-        <v>7</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="1">
-        <v>159</v>
+        <v>69</v>
       </c>
       <c r="B52" t="s">
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D52">
-        <v>424</v>
+        <v>103</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="1">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="B53" t="s">
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D53">
-        <v>486</v>
+        <v>135</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="1">
-        <v>162</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D54">
-        <v>431</v>
+        <v>89</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="1">
-        <v>163</v>
+        <v>254</v>
       </c>
       <c r="B55" t="s">
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>177</v>
+        <v>170</v>
       </c>
       <c r="D55">
-        <v>431</v>
+        <v>29</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="1">
-        <v>164</v>
+        <v>353</v>
       </c>
       <c r="B56" t="s">
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D56">
-        <v>515</v>
+        <v>4</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="1">
-        <v>165</v>
+        <v>357</v>
       </c>
       <c r="B57" t="s">
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="D57">
-        <v>268</v>
+        <v>212</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="1">
-        <v>166</v>
+        <v>358</v>
       </c>
       <c r="B58" t="s">
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D58">
-        <v>268</v>
+        <v>212</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="1">
-        <v>167</v>
+        <v>359</v>
       </c>
       <c r="B59" t="s">
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D59">
-        <v>293</v>
+        <v>128</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="1">
-        <v>168</v>
+        <v>360</v>
       </c>
       <c r="B60" t="s">
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D60">
-        <v>294</v>
+        <v>128</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="1">
-        <v>169</v>
+        <v>361</v>
       </c>
       <c r="B61" t="s">
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="D61">
-        <v>1176</v>
+        <v>512</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="1">
-        <v>186</v>
+        <v>400</v>
       </c>
       <c r="B62" t="s">
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D62">
-        <v>545</v>
+        <v>243</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="1">
-        <v>192</v>
+        <v>403</v>
       </c>
       <c r="B63" t="s">
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D63">
-        <v>431</v>
+        <v>225</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="1">
-        <v>193</v>
+        <v>404</v>
       </c>
       <c r="B64" t="s">
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D64">
-        <v>431</v>
+        <v>225</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="1">
-        <v>194</v>
+        <v>405</v>
       </c>
       <c r="B65" t="s">
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>170</v>
+        <v>182</v>
       </c>
       <c r="D65">
-        <v>148</v>
+        <v>245</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="1">
-        <v>206</v>
+        <v>406</v>
       </c>
       <c r="B66" t="s">
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D66">
-        <v>73</v>
+        <v>30</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="1">
-        <v>239</v>
+        <v>407</v>
       </c>
       <c r="B67" t="s">
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="D67">
-        <v>7</v>
+        <v>28</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="1">
-        <v>293</v>
+        <v>408</v>
       </c>
       <c r="B68" t="s">
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>170</v>
+        <v>185</v>
       </c>
       <c r="D68">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="1">
-        <v>338</v>
+        <v>433</v>
       </c>
       <c r="B69" t="s">
         <v>70</v>
@@ -1995,124 +2013,124 @@
         <v>170</v>
       </c>
       <c r="D69">
-        <v>30</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="1">
-        <v>408</v>
+        <v>572</v>
       </c>
       <c r="B70" t="s">
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D70">
-        <v>704</v>
+        <v>224</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="1">
-        <v>409</v>
+        <v>579</v>
       </c>
       <c r="B71" t="s">
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D71">
-        <v>704</v>
+        <v>224</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="1">
-        <v>452</v>
+        <v>624</v>
       </c>
       <c r="B72" t="s">
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D72">
-        <v>14</v>
+        <v>292</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="1">
-        <v>488</v>
+        <v>642</v>
       </c>
       <c r="B73" t="s">
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="D73">
-        <v>43</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="1">
-        <v>659</v>
+        <v>644</v>
       </c>
       <c r="B74" t="s">
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>170</v>
+        <v>190</v>
       </c>
       <c r="D74">
-        <v>52</v>
+        <v>207</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="1">
-        <v>719</v>
+        <v>657</v>
       </c>
       <c r="B75" t="s">
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>170</v>
+        <v>191</v>
       </c>
       <c r="D75">
-        <v>4</v>
+        <v>292</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="1">
-        <v>782</v>
+        <v>733</v>
       </c>
       <c r="B76" t="s">
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D76">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="1">
-        <v>809</v>
+        <v>760</v>
       </c>
       <c r="B77" t="s">
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D77">
-        <v>11</v>
+        <v>172</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="1">
-        <v>821</v>
+        <v>770</v>
       </c>
       <c r="B78" t="s">
         <v>79</v>
@@ -2121,82 +2139,82 @@
         <v>170</v>
       </c>
       <c r="D78">
-        <v>1</v>
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="1">
-        <v>872</v>
+        <v>890</v>
       </c>
       <c r="B79" t="s">
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>170</v>
+        <v>194</v>
       </c>
       <c r="D79">
-        <v>2</v>
+        <v>26</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="1">
-        <v>923</v>
+        <v>891</v>
       </c>
       <c r="B80" t="s">
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>170</v>
+        <v>195</v>
       </c>
       <c r="D80">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="1">
-        <v>1149</v>
+        <v>892</v>
       </c>
       <c r="B81" t="s">
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>26</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="1">
-        <v>1151</v>
+        <v>1474</v>
       </c>
       <c r="B82" t="s">
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="D82">
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="1">
-        <v>1180</v>
+        <v>2389</v>
       </c>
       <c r="B83" t="s">
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>170</v>
+        <v>197</v>
       </c>
       <c r="D83">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="1">
-        <v>1291</v>
+        <v>2784</v>
       </c>
       <c r="B84" t="s">
         <v>85</v>
@@ -2205,88 +2223,88 @@
         <v>170</v>
       </c>
       <c r="D84">
-        <v>9</v>
+        <v>72</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="1">
-        <v>1336</v>
+        <v>2798</v>
       </c>
       <c r="B85" t="s">
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>170</v>
+        <v>198</v>
       </c>
       <c r="D85">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="1">
-        <v>1455</v>
+        <v>2799</v>
       </c>
       <c r="B86" t="s">
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="D86">
-        <v>34</v>
+        <v>5</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="1">
-        <v>1495</v>
+        <v>2801</v>
       </c>
       <c r="B87" t="s">
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>170</v>
+        <v>200</v>
       </c>
       <c r="D87">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="1">
-        <v>1628</v>
+        <v>2806</v>
       </c>
       <c r="B88" t="s">
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="D88">
-        <v>9</v>
+        <v>45</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="1">
-        <v>1651</v>
+        <v>2839</v>
       </c>
       <c r="B89" t="s">
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D89">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="1">
-        <v>1653</v>
+        <v>2877</v>
       </c>
       <c r="B90" t="s">
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>197</v>
+        <v>170</v>
       </c>
       <c r="D90">
         <v>4</v>
@@ -2294,133 +2312,133 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="1">
-        <v>1728</v>
+        <v>3023</v>
       </c>
       <c r="B91" t="s">
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="D91">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="1">
-        <v>1729</v>
+        <v>3033</v>
       </c>
       <c r="B92" t="s">
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="D92">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="1">
-        <v>1731</v>
+        <v>3083</v>
       </c>
       <c r="B93" t="s">
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D93">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="1">
-        <v>1741</v>
+        <v>3102</v>
       </c>
       <c r="B94" t="s">
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D94">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="1">
-        <v>1749</v>
+        <v>3112</v>
       </c>
       <c r="B95" t="s">
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D95">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="1">
-        <v>1759</v>
+        <v>3122</v>
       </c>
       <c r="B96" t="s">
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D96">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="1">
-        <v>1842</v>
+        <v>3124</v>
       </c>
       <c r="B97" t="s">
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D97">
-        <v>31</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="1">
-        <v>1843</v>
+        <v>3129</v>
       </c>
       <c r="B98" t="s">
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D98">
-        <v>84</v>
+        <v>14</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="1">
-        <v>1844</v>
+        <v>3130</v>
       </c>
       <c r="B99" t="s">
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D99">
-        <v>76</v>
+        <v>7</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="1">
-        <v>1873</v>
+        <v>3135</v>
       </c>
       <c r="B100" t="s">
         <v>101</v>
@@ -2429,152 +2447,152 @@
         <v>170</v>
       </c>
       <c r="D100">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="1">
-        <v>1898</v>
+        <v>3216</v>
       </c>
       <c r="B101" t="s">
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D101">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="1">
-        <v>1925</v>
+        <v>3297</v>
       </c>
       <c r="B102" t="s">
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>208</v>
+        <v>170</v>
       </c>
       <c r="D102">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="1">
-        <v>2019</v>
+        <v>3444</v>
       </c>
       <c r="B103" t="s">
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>209</v>
+        <v>170</v>
       </c>
       <c r="D103">
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="1">
-        <v>2020</v>
+        <v>3466</v>
       </c>
       <c r="B104" t="s">
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D104">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="1">
-        <v>2023</v>
+        <v>3467</v>
       </c>
       <c r="B105" t="s">
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D105">
-        <v>68</v>
+        <v>20</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="1">
-        <v>2150</v>
+        <v>3491</v>
       </c>
       <c r="B106" t="s">
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D106">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="1">
-        <v>2402</v>
+        <v>3492</v>
       </c>
       <c r="B107" t="s">
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D107">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="1">
-        <v>2487</v>
+        <v>3493</v>
       </c>
       <c r="B108" t="s">
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>170</v>
+        <v>216</v>
       </c>
       <c r="D108">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="1">
-        <v>2634</v>
+        <v>3502</v>
       </c>
       <c r="B109" t="s">
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="D109">
-        <v>3</v>
+        <v>20</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="1">
-        <v>2762</v>
+        <v>3503</v>
       </c>
       <c r="B110" t="s">
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D110">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="1">
-        <v>2839</v>
+        <v>3504</v>
       </c>
       <c r="B111" t="s">
         <v>112</v>
@@ -2583,12 +2601,12 @@
         <v>170</v>
       </c>
       <c r="D111">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="1">
-        <v>2986</v>
+        <v>3603</v>
       </c>
       <c r="B112" t="s">
         <v>113</v>
@@ -2597,96 +2615,96 @@
         <v>170</v>
       </c>
       <c r="D112">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="1">
-        <v>3061</v>
+        <v>3890</v>
       </c>
       <c r="B113" t="s">
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D113">
-        <v>28</v>
+        <v>80</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="1">
-        <v>3070</v>
+        <v>3903</v>
       </c>
       <c r="B114" t="s">
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D114">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="1">
-        <v>3838</v>
+        <v>3905</v>
       </c>
       <c r="B115" t="s">
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D115">
-        <v>4</v>
+        <v>80</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="1">
-        <v>4143</v>
+        <v>4885</v>
       </c>
       <c r="B116" t="s">
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>170</v>
+        <v>222</v>
       </c>
       <c r="D116">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="1">
-        <v>4359</v>
+        <v>4955</v>
       </c>
       <c r="B117" t="s">
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>170</v>
+        <v>223</v>
       </c>
       <c r="D117">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="1">
-        <v>4403</v>
+        <v>5011</v>
       </c>
       <c r="B118" t="s">
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>170</v>
+        <v>224</v>
       </c>
       <c r="D118">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="1">
-        <v>4765</v>
+        <v>5185</v>
       </c>
       <c r="B119" t="s">
         <v>120</v>
@@ -2695,12 +2713,12 @@
         <v>170</v>
       </c>
       <c r="D119">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="1">
-        <v>5157</v>
+        <v>5228</v>
       </c>
       <c r="B120" t="s">
         <v>121</v>
@@ -2709,62 +2727,6 @@
         <v>170</v>
       </c>
       <c r="D120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="1">
-        <v>5211</v>
-      </c>
-      <c r="B121" t="s">
-        <v>122</v>
-      </c>
-      <c r="C121" t="s">
-        <v>170</v>
-      </c>
-      <c r="D121">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="1">
-        <v>5372</v>
-      </c>
-      <c r="B122" t="s">
-        <v>123</v>
-      </c>
-      <c r="C122" t="s">
-        <v>170</v>
-      </c>
-      <c r="D122">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="1">
-        <v>5642</v>
-      </c>
-      <c r="B123" t="s">
-        <v>124</v>
-      </c>
-      <c r="C123" t="s">
-        <v>218</v>
-      </c>
-      <c r="D123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="1">
-        <v>5718</v>
-      </c>
-      <c r="B124" t="s">
-        <v>125</v>
-      </c>
-      <c r="C124" t="s">
-        <v>170</v>
-      </c>
-      <c r="D124">
         <v>2</v>
       </c>
     </row>
